--- a/Libraries/Vehicle/Linkage/Link5_S2LAR/sm_car_data_Linkage_Link5_S2LAR.xlsx
+++ b/Libraries/Vehicle/Linkage/Link5_S2LAR/sm_car_data_Linkage_Link5_S2LAR.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Linkage\Link5_S2LAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50250BD2-ADB7-467A-9F4A-67555B90BBBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA4E370-5CE5-4A86-91F4-892C3E9D7877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="833" xr2:uid="{8C42F24B-A2AD-4F52-B2E0-8CD89C371F5D}"/>
+    <workbookView xWindow="40215" yWindow="405" windowWidth="16905" windowHeight="14295" tabRatio="833" firstSheet="1" activeTab="3" xr2:uid="{8C42F24B-A2AD-4F52-B2E0-8CD89C371F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="L5StoLAR_Sedan_HambaLG_f" sheetId="3" r:id="rId1"/>
     <sheet name="L5StoLAR_Sedan_HambaLG_r" sheetId="4" r:id="rId2"/>
+    <sheet name="L5StoLAR_Sedan_Hamba_f" sheetId="5" r:id="rId3"/>
+    <sheet name="L5StoLAR_Sedan_Hamba_r" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="47">
   <si>
     <t>Units</t>
   </si>
@@ -167,14 +174,21 @@
   </si>
   <si>
     <t>Useful for rear axle</t>
+  </si>
+  <si>
+    <t>FiveLinkShockRear_Sedan_Hamba_f</t>
+  </si>
+  <si>
+    <t>FiveLinkShockRear_Sedan_Hamba_r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -258,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -300,11 +314,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -649,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -658,30 +715,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E992B70-DA4E-4AA8-A1F6-18BD86B496AF}">
   <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J5" sqref="J5"/>
       <selection pane="topRight" activeCell="J5" sqref="J5"/>
       <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -701,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -715,7 +772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -732,7 +789,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -749,7 +806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -760,13 +817,13 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="7">
         <v>0.29913000000000006</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="7">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="7">
         <v>0.19097000000000003</v>
       </c>
       <c r="L5" s="23">
@@ -782,7 +839,7 @@
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -791,13 +848,13 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="7">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="7">
         <v>0.18855571428571433</v>
       </c>
       <c r="L6" s="23">
@@ -813,7 +870,7 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -822,13 +879,761 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="20"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
+        <v>2.9028299999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7">
+        <v>-0.18372714285714289</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.2452914285714286</v>
+      </c>
+      <c r="L8" s="23">
+        <f>-F5</f>
+        <v>-0.29913000000000006</v>
+      </c>
+      <c r="M8" s="23">
+        <f>G5</f>
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="N8" s="23">
+        <f t="shared" ref="N8:N9" si="0">H5</f>
+        <v>0.19097000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.18855571428571433</v>
+      </c>
+      <c r="L9" s="23">
+        <f>-F6</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="M9" s="23">
+        <f t="shared" ref="M9" si="1">G6</f>
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="N9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.18855571428571433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7">
+        <v>2.9028299999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.16634428571428575</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.53609214285714291</v>
+      </c>
+      <c r="L11" s="23">
+        <f>-F14</f>
+        <v>0.18372714285714289</v>
+      </c>
+      <c r="M11" s="23">
+        <f>G14</f>
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="N11" s="23">
+        <f>H14</f>
+        <v>0.51255285714285714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7">
+        <f>-0.03</f>
+        <v>-0.03</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.54321428571428576</v>
+      </c>
+      <c r="L12" s="23">
+        <f>-F15</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M12" s="23">
+        <f>G15</f>
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="N12" s="23">
+        <f>H15</f>
+        <v>0.54321428571428576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7">
+        <f>5.27788/2</f>
+        <v>2.6389399999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7">
+        <v>-0.18372714285714289</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.51255285714285714</v>
+      </c>
+      <c r="L14" s="23">
+        <f>-F11</f>
+        <v>-0.16634428571428575</v>
+      </c>
+      <c r="M14" s="23">
+        <f>G11</f>
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="N14" s="23">
+        <f t="shared" ref="N14:N15" si="2">H11</f>
+        <v>0.53609214285714291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7">
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.54321428571428576</v>
+      </c>
+      <c r="L15" s="23">
+        <f>-F12</f>
+        <v>0.03</v>
+      </c>
+      <c r="M15" s="23">
+        <f t="shared" ref="M15" si="3">G12</f>
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="N15" s="23">
+        <f t="shared" si="2"/>
+        <v>0.54321428571428576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7">
+        <f>5.27788/2</f>
+        <v>2.6389399999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="7">
+        <v>9.4157142857142894E-3</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.42648357142857141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.36214285714285716</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7">
+        <v>1.76</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="19">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0.65</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.91</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0.23</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19">
+        <v>5.2778799999999997</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="21">
+        <v>-2.6557142857142869E-3</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0.65</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="24">
+        <f>-F28</f>
+        <v>2.6557142857142869E-3</v>
+      </c>
+      <c r="M28" s="24">
+        <f>G28</f>
+        <v>0.62</v>
+      </c>
+      <c r="N28" s="24">
+        <f t="shared" ref="N28:N29" si="4">H28</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="21">
+        <v>5.5166428571428582E-2</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="H29" s="19">
+        <v>0.19</v>
+      </c>
+      <c r="L29" s="24">
+        <f>-F29</f>
+        <v>-5.5166428571428582E-2</v>
+      </c>
+      <c r="M29" s="24">
+        <f t="shared" ref="M29" si="5">G29</f>
+        <v>0.85</v>
+      </c>
+      <c r="N29" s="24">
+        <f t="shared" si="4"/>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7">
+        <v>3.6529410000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7">
+        <v>4.3157700000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="7">
+        <v>-0.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A28:B31">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:B33">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3936FA4-E166-46E6-A66B-4CD7AB209D8A}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J5" sqref="J5"/>
+      <selection pane="topRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.18372714285714289</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.2452914285714286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="19">
+        <f>-0.03</f>
+        <v>-0.03</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.18855571428571433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19">
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -840,28 +1645,16 @@
         <v>12</v>
       </c>
       <c r="F8" s="19">
-        <v>-0.18372714285714289</v>
+        <v>-0.29913000000000006</v>
       </c>
       <c r="G8" s="19">
         <v>0.44059999999999999</v>
       </c>
       <c r="H8" s="19">
-        <v>0.2452914285714286</v>
-      </c>
-      <c r="L8" s="23">
-        <f>-F5</f>
-        <v>-0.29913000000000006</v>
-      </c>
-      <c r="M8" s="23">
-        <f>G5</f>
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="N8" s="23">
-        <f t="shared" ref="N8:N9" si="0">H5</f>
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -871,7 +1664,8 @@
         <v>12</v>
       </c>
       <c r="F9" s="19">
-        <v>0.03</v>
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="G9" s="19">
         <v>0.89710000000000001</v>
@@ -879,20 +1673,8 @@
       <c r="H9" s="19">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L9" s="23">
-        <f>-F6</f>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="M9" s="23">
-        <f t="shared" ref="M9" si="1">G6</f>
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="N9" s="23">
-        <f t="shared" si="0"/>
-        <v>0.18855571428571433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -907,7 +1689,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -919,28 +1701,16 @@
         <v>12</v>
       </c>
       <c r="F11" s="19">
-        <v>0.16634428571428575</v>
+        <v>0.18372714285714289</v>
       </c>
       <c r="G11" s="19">
         <v>0.63060000000000005</v>
       </c>
       <c r="H11" s="19">
-        <v>0.53609214285714291</v>
-      </c>
-      <c r="L11" s="23">
-        <f>-F14</f>
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="M11" s="23">
-        <f>G14</f>
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="N11" s="23">
-        <f>H14</f>
         <v>0.51255285714285714</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -950,8 +1720,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="19">
-        <f>-0.03</f>
-        <v>-0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G12" s="19">
         <v>0.89280000000000004</v>
@@ -959,20 +1728,8 @@
       <c r="H12" s="19">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L12" s="23">
-        <f>-F15</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M12" s="23">
-        <f>G15</f>
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="N12" s="23">
-        <f>H15</f>
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -988,7 +1745,7 @@
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1000,28 +1757,16 @@
         <v>12</v>
       </c>
       <c r="F14" s="19">
-        <v>-0.18372714285714289</v>
+        <v>-0.16634428571428575</v>
       </c>
       <c r="G14" s="19">
         <v>0.63060000000000005</v>
       </c>
       <c r="H14" s="19">
-        <v>0.51255285714285714</v>
-      </c>
-      <c r="L14" s="23">
-        <f>-F11</f>
-        <v>-0.16634428571428575</v>
-      </c>
-      <c r="M14" s="23">
-        <f>G11</f>
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="N14" s="23">
-        <f t="shared" ref="N14:N15" si="2">H11</f>
         <v>0.53609214285714291</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>13</v>
@@ -1031,8 +1776,7 @@
         <v>12</v>
       </c>
       <c r="F15" s="19">
-        <f>-0.07</f>
-        <v>-7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="G15" s="19">
         <v>0.89280000000000004</v>
@@ -1040,20 +1784,8 @@
       <c r="H15" s="19">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L15" s="23">
-        <f>-F12</f>
-        <v>0.03</v>
-      </c>
-      <c r="M15" s="23">
-        <f t="shared" ref="M15" si="3">G12</f>
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="N15" s="23">
-        <f t="shared" si="2"/>
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>12</v>
@@ -1069,7 +1801,7 @@
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1081,7 +1813,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="19">
-        <v>9.4157142857142894E-3</v>
+        <v>-9.4157142857142894E-3</v>
       </c>
       <c r="G17" s="19">
         <v>0.89449999999999996</v>
@@ -1090,7 +1822,7 @@
         <v>0.42648357142857141</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
@@ -1109,7 +1841,7 @@
         <v>0.36214285714285716</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>12</v>
@@ -1121,10 +1853,10 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>7.0371699999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>21</v>
@@ -1139,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>23</v>
@@ -1154,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>24</v>
@@ -1174,7 +1906,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>26</v>
@@ -1194,7 +1926,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>28</v>
@@ -1212,7 +1944,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1224,19 +1956,19 @@
         <v>12</v>
       </c>
       <c r="F25" s="19">
-        <v>0.24779999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="G25" s="19">
-        <v>0.52560000000000007</v>
+        <v>0.65</v>
       </c>
       <c r="H25" s="19">
-        <v>0.37421428571428578</v>
+        <v>0.24</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>13</v>
@@ -1246,19 +1978,16 @@
         <v>12</v>
       </c>
       <c r="F26" s="19">
-        <v>0.15379999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="G26" s="19">
-        <v>0.86560000000000004</v>
+        <v>0.91</v>
       </c>
       <c r="H26" s="19">
-        <v>0.37421428571428578</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
@@ -1272,15 +2001,12 @@
       <c r="H27" s="19">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L27" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="18" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="5"/>
@@ -1288,34 +2014,22 @@
         <v>12</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="21">
-        <v>-2.6557142857142869E-3</v>
-      </c>
-      <c r="G28" s="21">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H28" s="21">
-        <v>0.72138857142857149</v>
+      <c r="F28" s="19">
+        <v>2.6557142857142869E-3</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.62</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0.65</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="24">
-        <f>-F28</f>
-        <v>2.6557142857142869E-3</v>
-      </c>
-      <c r="M28" s="24">
-        <f>G28</f>
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="N28" s="24">
-        <f t="shared" ref="N28:N29" si="4">H28</f>
-        <v>0.72138857142857149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="5"/>
@@ -1323,29 +2037,17 @@
         <v>12</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="21">
-        <v>5.5166428571428582E-2</v>
-      </c>
-      <c r="G29" s="21">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H29" s="21">
-        <v>0.10791857142857141</v>
-      </c>
-      <c r="L29" s="24">
-        <f>-F29</f>
+      <c r="F29" s="19">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="M29" s="24">
-        <f t="shared" ref="M29" si="5">G29</f>
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="N29" s="24">
-        <f t="shared" si="4"/>
-        <v>0.10791857142857141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G29" s="19">
+        <v>0.85</v>
+      </c>
+      <c r="H29" s="19">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>35</v>
@@ -1360,7 +2062,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
         <v>36</v>
@@ -1375,7 +2077,7 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
@@ -1396,7 +2098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="16" t="s">
         <v>40</v>
@@ -1410,6 +2112,788 @@
       <c r="G33" s="13"/>
       <c r="H33" s="7">
         <v>-0.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A28:B31">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:B33">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8F0F1D-A7D2-406F-B34B-A208F2C350FD}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="J5" sqref="J5"/>
+      <selection pane="topRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17:H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="L5" s="23">
+        <f>-F8</f>
+        <v>0.125</v>
+      </c>
+      <c r="M5" s="23">
+        <f>G8</f>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="N5" s="23">
+        <f>H8</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="L6" s="23">
+        <f>-F9</f>
+        <v>0.01</v>
+      </c>
+      <c r="M6" s="23">
+        <f>G9</f>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="N6" s="23">
+        <f>H9</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
+        <f>5.80566/2</f>
+        <v>2.9028299999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="19">
+        <v>-0.125</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="L8" s="23">
+        <f>-F5</f>
+        <v>-0.22500000000000001</v>
+      </c>
+      <c r="M8" s="23">
+        <f>G5</f>
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="N8" s="23">
+        <f t="shared" ref="N8:N9" si="0">H5</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="19">
+        <v>-0.01</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="L9" s="23">
+        <f>-F6</f>
+        <v>-0.04</v>
+      </c>
+      <c r="M9" s="23">
+        <f t="shared" ref="M9" si="1">G6</f>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="N9" s="23">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19">
+        <f>5.80566/2</f>
+        <v>2.9028299999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.43</v>
+      </c>
+      <c r="L11" s="23">
+        <f>-F14</f>
+        <v>0.105</v>
+      </c>
+      <c r="M11" s="23">
+        <f>G14</f>
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="N11" s="23">
+        <f>H14</f>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="L12" s="23">
+        <f>-F15</f>
+        <v>0.06</v>
+      </c>
+      <c r="M12" s="23">
+        <f>G15</f>
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="N12" s="23">
+        <f>H15</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7">
+        <f>5.27788/2</f>
+        <v>2.6389399999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7">
+        <v>-0.105</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="L14" s="23">
+        <f>-F11</f>
+        <v>-0.1</v>
+      </c>
+      <c r="M14" s="23">
+        <f>G11</f>
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="N14" s="23">
+        <f t="shared" ref="N14:N15" si="2">H11</f>
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7">
+        <v>-0.06</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="L15" s="23">
+        <f>-F12</f>
+        <v>0.02</v>
+      </c>
+      <c r="M15" s="23">
+        <f t="shared" ref="M15" si="3">G12</f>
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="N15" s="23">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7">
+        <f>5.27788/2</f>
+        <v>2.6389399999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="19">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
+        <v>0.73</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="19">
+        <v>0</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="H18" s="19">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19">
+        <v>1.76</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="19">
+        <v>0.13708300000000001</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0.439</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0.14208299999999999</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0.185</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19">
+        <v>5.2778799999999997</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="21">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G28" s="21">
+        <v>0.49198500000000001</v>
+      </c>
+      <c r="H28" s="21">
+        <v>0.52585999999999999</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="24">
+        <f>-F28</f>
+        <v>-4.9783000000000001E-2</v>
+      </c>
+      <c r="M28" s="24">
+        <f>G28</f>
+        <v>0.49198500000000001</v>
+      </c>
+      <c r="N28" s="24">
+        <f t="shared" ref="N28:N29" si="4">H28</f>
+        <v>0.52585999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="21">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H29" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="L29" s="24">
+        <f>-F29</f>
+        <v>-4.9783000000000001E-2</v>
+      </c>
+      <c r="M29" s="24">
+        <f t="shared" ref="M29" si="5">G29</f>
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="N29" s="24">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19">
+        <v>3.6529410000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19">
+        <v>4.3157700000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="19">
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
@@ -1432,33 +2916,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3936FA4-E166-46E6-A66B-4CD7AB209D8A}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1224872E-27B7-4CB5-B51B-45B406A577BC}">
   <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J5" sqref="J5"/>
       <selection pane="topRight" activeCell="J5" sqref="J5"/>
       <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1478,7 +2962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1492,7 +2976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1503,10 +2987,10 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1520,7 +3004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1532,16 +3016,16 @@
         <v>12</v>
       </c>
       <c r="F5" s="19">
-        <v>0.18372714285714289</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="G5" s="19">
-        <v>0.44059999999999999</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="H5" s="19">
-        <v>0.2452914285714286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1551,17 +3035,16 @@
         <v>12</v>
       </c>
       <c r="F6" s="19">
-        <f>-0.03</f>
-        <v>-0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G6" s="19">
-        <v>0.89710000000000001</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="H6" s="19">
-        <v>0.18855571428571433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -1573,10 +3056,11 @@
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
       <c r="H7" s="19">
+        <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1588,16 +3072,16 @@
         <v>12</v>
       </c>
       <c r="F8" s="19">
-        <v>-0.29913000000000006</v>
+        <v>-0.125</v>
       </c>
       <c r="G8" s="19">
-        <v>0.44059999999999999</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="H8" s="19">
-        <v>0.19097000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1607,17 +3091,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="19">
-        <f>-0.07</f>
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.02</v>
       </c>
       <c r="G9" s="19">
-        <v>0.89710000000000001</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="H9" s="19">
-        <v>0.18855571428571433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -1629,10 +3112,11 @@
       <c r="F10" s="20"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19">
+        <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1644,16 +3128,16 @@
         <v>12</v>
       </c>
       <c r="F11" s="19">
-        <v>0.18372714285714289</v>
+        <v>0.1</v>
       </c>
       <c r="G11" s="19">
-        <v>0.63060000000000005</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="H11" s="19">
-        <v>0.51255285714285714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -1662,17 +3146,17 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="H12" s="19">
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F12" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -1681,14 +3165,14 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1699,17 +3183,17 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="19">
-        <v>-0.16634428571428575</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="H14" s="19">
-        <v>0.53609214285714291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F14" s="7">
+        <v>-0.105</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>13</v>
@@ -1718,17 +3202,17 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="19">
-        <v>0.03</v>
-      </c>
-      <c r="G15" s="19">
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="H15" s="19">
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F15" s="7">
+        <v>-0.02</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>12</v>
@@ -1737,14 +3221,14 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1756,16 +3240,16 @@
         <v>12</v>
       </c>
       <c r="F17" s="19">
-        <v>-9.4157142857142894E-3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="19">
-        <v>0.89449999999999996</v>
+        <v>0.74</v>
       </c>
       <c r="H17" s="19">
-        <v>0.42648357142857141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
@@ -1778,13 +3262,13 @@
         <v>0</v>
       </c>
       <c r="G18" s="19">
-        <v>0.99209999999999998</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="H18" s="19">
-        <v>0.36214285714285716</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>12</v>
@@ -1793,13 +3277,13 @@
       <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19">
         <v>7.0371699999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>21</v>
@@ -1808,13 +3292,13 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7">
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>23</v>
@@ -1823,13 +3307,13 @@
       <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7">
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>24</v>
@@ -1841,15 +3325,15 @@
       <c r="E22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7">
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19">
         <v>0.15</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>26</v>
@@ -1861,15 +3345,15 @@
       <c r="E23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7">
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19">
         <v>0.05</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>28</v>
@@ -1879,15 +3363,15 @@
         <v>14</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7">
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19">
         <v>1.76</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1899,19 +3383,19 @@
         <v>12</v>
       </c>
       <c r="F25" s="19">
-        <v>0.24779999999999999</v>
+        <v>-0.13</v>
       </c>
       <c r="G25" s="19">
-        <v>0.52560000000000007</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="H25" s="19">
-        <v>0.37421428571428578</v>
+        <v>0.185</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>13</v>
@@ -1921,16 +3405,16 @@
         <v>12</v>
       </c>
       <c r="F26" s="19">
-        <v>0.15379999999999999</v>
+        <v>-0.13</v>
       </c>
       <c r="G26" s="19">
-        <v>0.86560000000000004</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="H26" s="19">
-        <v>0.37421428571428578</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
@@ -1945,7 +3429,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1957,20 +3441,21 @@
         <v>12</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="21">
-        <v>2.6557142857142899E-3</v>
-      </c>
-      <c r="G28" s="21">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H28" s="21">
-        <v>0.72138857142857149</v>
+      <c r="F28" s="19">
+        <f>-0.01387-0.04</f>
+        <v>-5.3870000000000001E-2</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.49195</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0.52285999999999999</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="18" t="s">
         <v>34</v>
@@ -1980,17 +3465,18 @@
         <v>12</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="21">
-        <v>-5.5166428571428602E-2</v>
-      </c>
-      <c r="G29" s="21">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H29" s="21">
-        <v>0.10791857142857141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F29" s="19">
+        <f>-0.013587-0.04</f>
+        <v>-5.3587000000000003E-2</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H29" s="19">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>35</v>
@@ -1999,13 +3485,13 @@
       <c r="D30" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7">
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19">
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
         <v>36</v>
@@ -2014,13 +3500,13 @@
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7">
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19">
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
@@ -2032,16 +3518,16 @@
         <v>12</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="7">
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="19">
         <v>0.1</v>
       </c>
       <c r="J32" s="16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="16" t="s">
         <v>40</v>
@@ -2051,13 +3537,13 @@
         <v>12</v>
       </c>
       <c r="E33" s="6"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="7">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="19">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
   </sheetData>

--- a/Libraries/Vehicle/Linkage/Link5_S2LAR/sm_car_data_Linkage_Link5_S2LAR.xlsx
+++ b/Libraries/Vehicle/Linkage/Link5_S2LAR/sm_car_data_Linkage_Link5_S2LAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Linkage\Link5_S2LAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\Link5_S2LAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA4E370-5CE5-4A86-91F4-892C3E9D7877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879F223E-F1F2-4E75-97FA-5AA67AC09FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40215" yWindow="405" windowWidth="16905" windowHeight="14295" tabRatio="833" firstSheet="1" activeTab="3" xr2:uid="{8C42F24B-A2AD-4F52-B2E0-8CD89C371F5D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="833" activeTab="3" xr2:uid="{8C42F24B-A2AD-4F52-B2E0-8CD89C371F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="L5StoLAR_Sedan_HambaLG_f" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="52">
   <si>
     <t>Units</t>
   </si>
@@ -180,6 +180,21 @@
   </si>
   <si>
     <t>FiveLinkShockRear_Sedan_Hamba_r</t>
+  </si>
+  <si>
+    <t>UpperArmF to Subframe</t>
+  </si>
+  <si>
+    <t>Rigid_UJ</t>
+  </si>
+  <si>
+    <t>UpperArmR to Subframe</t>
+  </si>
+  <si>
+    <t>LowerArmF to Subframe</t>
+  </si>
+  <si>
+    <t>LowerArmR to Subframe</t>
   </si>
 </sst>
 </file>
@@ -272,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -285,9 +300,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -298,7 +312,7 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -308,13 +322,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,9 +433,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -458,7 +473,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -564,7 +579,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -706,7 +721,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -717,19 +732,19 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J5" sqref="J5"/>
       <selection pane="topRight" activeCell="J5" sqref="J5"/>
       <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -764,11 +779,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -778,31 +792,29 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -817,24 +829,24 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.29913000000000006</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>0.19097000000000003</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="20">
         <f>-F8</f>
         <v>0.18372714285714289</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="20">
         <f>G8</f>
         <v>0.44059999999999999</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="20">
         <f>H8</f>
         <v>0.2452914285714286</v>
       </c>
@@ -848,24 +860,24 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="20">
         <f>-F9</f>
         <v>-0.03</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="20">
         <f>G9</f>
         <v>0.89710000000000001</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="20">
         <f>H9</f>
         <v>0.18855571428571433</v>
       </c>
@@ -879,9 +891,9 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
+      <c r="F7" s="12"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
         <v>2.9028299999999998</v>
       </c>
     </row>
@@ -896,24 +908,24 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>-0.18372714285714289</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.2452914285714286</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="20">
         <f>-F5</f>
         <v>-0.29913000000000006</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="20">
         <f>G5</f>
         <v>0.44059999999999999</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="20">
         <f t="shared" ref="N8:N9" si="0">H5</f>
         <v>0.19097000000000003</v>
       </c>
@@ -927,24 +939,24 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>0.03</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="20">
         <f>-F6</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="20">
         <f t="shared" ref="M9" si="1">G6</f>
         <v>0.89710000000000001</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="20">
         <f t="shared" si="0"/>
         <v>0.18855571428571433</v>
       </c>
@@ -958,9 +970,9 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
+      <c r="F10" s="12"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
         <v>2.9028299999999998</v>
       </c>
     </row>
@@ -975,24 +987,24 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>0.16634428571428575</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>0.53609214285714291</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="20">
         <f>-F14</f>
         <v>0.18372714285714289</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="20">
         <f>G14</f>
         <v>0.63060000000000005</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="20">
         <f>H14</f>
         <v>0.51255285714285714</v>
       </c>
@@ -1006,25 +1018,25 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f>-0.03</f>
         <v>-0.03</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="20">
         <f>-F15</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="20">
         <f>G15</f>
         <v>0.89280000000000004</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="20">
         <f>H15</f>
         <v>0.54321428571428576</v>
       </c>
@@ -1038,9 +1050,9 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
@@ -1056,24 +1068,24 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>-0.18372714285714289</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>0.51255285714285714</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="20">
         <f>-F11</f>
         <v>-0.16634428571428575</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="20">
         <f>G11</f>
         <v>0.63060000000000005</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="20">
         <f t="shared" ref="N14:N15" si="2">H11</f>
         <v>0.53609214285714291</v>
       </c>
@@ -1087,25 +1099,25 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f>-0.07</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="20">
         <f>-F12</f>
         <v>0.03</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="20">
         <f t="shared" ref="M15" si="3">G12</f>
         <v>0.89280000000000004</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="20">
         <f t="shared" si="2"/>
         <v>0.54321428571428576</v>
       </c>
@@ -1119,9 +1131,9 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
@@ -1137,13 +1149,13 @@
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>9.4157142857142894E-3</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>0.89449999999999996</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>0.42648357142857141</v>
       </c>
     </row>
@@ -1156,13 +1168,13 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>0.99209999999999998</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>0.36214285714285716</v>
       </c>
     </row>
@@ -1175,9 +1187,9 @@
       <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -1190,9 +1202,9 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1205,9 +1217,9 @@
       <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1217,19 +1229,17 @@
         <v>24</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
         <v>0.15</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -1237,19 +1247,17 @@
         <v>26</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
         <v>0.05</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -1257,39 +1265,36 @@
         <v>28</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6">
         <v>1.76</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="6">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="6">
         <v>0.65</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="6">
         <v>0.24</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1302,16 +1307,16 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="6">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="6">
         <v>0.91</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="6">
         <v>0.23</v>
       </c>
-      <c r="L26" s="22" t="s">
+      <c r="L26" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1324,12 +1329,12 @@
       <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L27" s="19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1337,67 +1342,65 @@
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="21">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="18">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="6">
         <v>0.62</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="6">
         <v>0.65</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="21">
         <f>-F28</f>
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="21">
         <f>G28</f>
         <v>0.62</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="21">
         <f t="shared" ref="N28:N29" si="4">H28</f>
         <v>0.65</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="21">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="18">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="6">
         <v>0.85</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="6">
         <v>0.19</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="21">
         <f>-F29</f>
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="M29" s="24">
+      <c r="M29" s="21">
         <f t="shared" ref="M29" si="5">G29</f>
         <v>0.85</v>
       </c>
-      <c r="N29" s="24">
+      <c r="N29" s="21">
         <f t="shared" si="4"/>
         <v>0.19</v>
       </c>
@@ -1411,9 +1414,9 @@
       <c r="D30" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -1426,9 +1429,9 @@
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
         <v>4.3157700000000006</v>
       </c>
     </row>
@@ -1436,52 +1439,114 @@
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="7">
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="6">
         <v>0.1</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="7">
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="6">
         <v>-0.15</v>
       </c>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A28:B31">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:B33">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+  <conditionalFormatting sqref="A28:B33">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+  <conditionalFormatting sqref="A34:A37">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1494,19 +1559,19 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J5" sqref="J5"/>
       <selection pane="topRight" activeCell="J5" sqref="J5"/>
       <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -1541,11 +1606,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1555,25 +1619,23 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1588,13 +1650,13 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="6">
         <v>0.18372714285714289</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="6">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="6">
         <v>0.2452914285714286</v>
       </c>
     </row>
@@ -1607,14 +1669,14 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="6">
         <f>-0.03</f>
         <v>-0.03</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="6">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="6">
         <v>0.18855571428571433</v>
       </c>
     </row>
@@ -1627,9 +1689,9 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
         <v>2.9028299999999998</v>
       </c>
     </row>
@@ -1644,13 +1706,13 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="6">
         <v>-0.29913000000000006</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="6">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="6">
         <v>0.19097000000000003</v>
       </c>
     </row>
@@ -1663,14 +1725,14 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="6">
         <f>-0.07</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="6">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="6">
         <v>0.18855571428571433</v>
       </c>
     </row>
@@ -1683,9 +1745,9 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19">
+      <c r="F10" s="12"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
         <v>2.9028299999999998</v>
       </c>
     </row>
@@ -1700,13 +1762,13 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="6">
         <v>0.18372714285714289</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="6">
         <v>0.51255285714285714</v>
       </c>
     </row>
@@ -1719,13 +1781,13 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="6">
         <v>0.54321428571428576</v>
       </c>
     </row>
@@ -1738,9 +1800,9 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
@@ -1756,13 +1818,13 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="6">
         <v>-0.16634428571428575</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="6">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="6">
         <v>0.53609214285714291</v>
       </c>
     </row>
@@ -1775,13 +1837,13 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="6">
         <v>0.03</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="6">
         <v>0.54321428571428576</v>
       </c>
     </row>
@@ -1794,9 +1856,9 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
@@ -1812,13 +1874,13 @@
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="6">
         <v>-9.4157142857142894E-3</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="6">
         <v>0.89449999999999996</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="6">
         <v>0.42648357142857141</v>
       </c>
     </row>
@@ -1831,13 +1893,13 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="6">
         <v>0.99209999999999998</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="6">
         <v>0.36214285714285716</v>
       </c>
     </row>
@@ -1850,9 +1912,9 @@
       <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>7.0371699999999997</v>
       </c>
     </row>
@@ -1865,9 +1927,9 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1880,9 +1942,9 @@
       <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1892,19 +1954,17 @@
         <v>24</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
         <v>0.15</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -1912,19 +1972,17 @@
         <v>26</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
         <v>0.05</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -1932,39 +1990,36 @@
         <v>28</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6">
         <v>1.76</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="6">
         <v>0.13</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="6">
         <v>0.65</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="6">
         <v>0.24</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1977,13 +2032,13 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="6">
         <v>0.13</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="6">
         <v>0.91</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="6">
         <v>0.23</v>
       </c>
     </row>
@@ -1996,9 +2051,9 @@
       <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -2006,44 +2061,42 @@
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="19">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="6">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="6">
         <v>0.62</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="6">
         <v>0.65</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="19">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="6">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="6">
         <v>0.85</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="6">
         <v>0.19</v>
       </c>
     </row>
@@ -2056,9 +2109,9 @@
       <c r="D30" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -2071,9 +2124,9 @@
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
         <v>4.3157700000000006</v>
       </c>
     </row>
@@ -2081,55 +2134,114 @@
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="7">
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="6">
         <v>0.1</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="7">
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="6">
         <v>-0.15</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="23" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A28:B31">
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:B33">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:B33">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+  <conditionalFormatting sqref="A34:A37">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2142,19 +2254,19 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J5" sqref="J5"/>
       <selection pane="topRight" activeCell="J5" sqref="J5"/>
       <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17:H33"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -2189,11 +2301,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2203,31 +2314,29 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2242,24 +2351,24 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="6">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="6">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="6">
         <v>0.15</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="20">
         <f>-F8</f>
         <v>0.125</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="20">
         <f>G8</f>
         <v>0.30599999999999999</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="20">
         <f>H8</f>
         <v>0.15</v>
       </c>
@@ -2273,24 +2382,24 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="6">
         <v>0.04</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="6">
         <v>0.76600000000000001</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="6">
         <v>0.15</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="20">
         <f>-F9</f>
         <v>0.01</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="20">
         <f>G9</f>
         <v>0.76600000000000001</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="20">
         <f>H9</f>
         <v>0.15</v>
       </c>
@@ -2304,9 +2413,9 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19">
+      <c r="F7" s="12"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
@@ -2322,24 +2431,24 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="6">
         <v>-0.125</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="6">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="6">
         <v>0.15</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="20">
         <f>-F5</f>
         <v>-0.22500000000000001</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="20">
         <f>G5</f>
         <v>0.30599999999999999</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="20">
         <f t="shared" ref="N8:N9" si="0">H5</f>
         <v>0.15</v>
       </c>
@@ -2353,24 +2462,24 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="6">
         <v>-0.01</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="6">
         <v>0.76600000000000001</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="6">
         <v>0.15</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="20">
         <f>-F6</f>
         <v>-0.04</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="20">
         <f t="shared" ref="M9" si="1">G6</f>
         <v>0.76600000000000001</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="20">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -2384,9 +2493,9 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19">
+      <c r="F10" s="12"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
@@ -2402,24 +2511,24 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="6">
         <v>0.1</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="6">
         <v>0.45100000000000001</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="6">
         <v>0.43</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="20">
         <f>-F14</f>
         <v>0.105</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="20">
         <f>G14</f>
         <v>0.45100000000000001</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="20">
         <f>H14</f>
         <v>0.41</v>
       </c>
@@ -2433,24 +2542,24 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>-0.02</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>0.68720000000000003</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>0.45</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="20">
         <f>-F15</f>
         <v>0.06</v>
       </c>
-      <c r="M12" s="23">
+      <c r="M12" s="20">
         <f>G15</f>
         <v>0.68720000000000003</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="20">
         <f>H15</f>
         <v>0.45</v>
       </c>
@@ -2464,9 +2573,9 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
@@ -2482,24 +2591,24 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>-0.105</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>0.45100000000000001</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>0.41</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="20">
         <f>-F11</f>
         <v>-0.1</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="20">
         <f>G11</f>
         <v>0.45100000000000001</v>
       </c>
-      <c r="N14" s="23">
+      <c r="N14" s="20">
         <f t="shared" ref="N14:N15" si="2">H11</f>
         <v>0.43</v>
       </c>
@@ -2513,24 +2622,24 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>-0.06</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>0.68720000000000003</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>0.45</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="20">
         <f>-F12</f>
         <v>0.02</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="20">
         <f t="shared" ref="M15" si="3">G12</f>
         <v>0.68720000000000003</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="20">
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
@@ -2544,9 +2653,9 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
@@ -2562,13 +2671,13 @@
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="6">
         <v>0</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="6">
         <v>0.73</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="6">
         <v>0.33</v>
       </c>
     </row>
@@ -2581,13 +2690,13 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="22">
         <v>0.78749999999999998</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="6">
         <v>0.33</v>
       </c>
     </row>
@@ -2600,9 +2709,9 @@
       <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -2615,9 +2724,9 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2630,9 +2739,9 @@
       <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2642,19 +2751,17 @@
         <v>24</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
         <v>0.15</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -2662,19 +2769,17 @@
         <v>26</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
         <v>0.05</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -2682,39 +2787,36 @@
         <v>28</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6">
         <v>1.76</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="6">
         <v>0.13708300000000001</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="6">
         <v>0.439</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="6">
         <v>0.20499999999999999</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2727,16 +2829,16 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="6">
         <v>0.14208299999999999</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="6">
         <v>0.78900000000000003</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="6">
         <v>0.185</v>
       </c>
-      <c r="L26" s="22" t="s">
+      <c r="L26" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2749,12 +2851,12 @@
       <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L27" s="19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2762,69 +2864,67 @@
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="21">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="18">
         <f>-0.000217+0.05</f>
         <v>4.9783000000000001E-2</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="18">
         <v>0.49198500000000001</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="18">
         <v>0.52585999999999999</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="21">
         <f>-F28</f>
         <v>-4.9783000000000001E-2</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="21">
         <f>G28</f>
         <v>0.49198500000000001</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="21">
         <f t="shared" ref="N28:N29" si="4">H28</f>
         <v>0.52585999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="21">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="18">
         <f>-0.000217+0.05</f>
         <v>4.9783000000000001E-2</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="18">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="18">
         <v>0.15</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="21">
         <f>-F29</f>
         <v>-4.9783000000000001E-2</v>
       </c>
-      <c r="M29" s="24">
+      <c r="M29" s="21">
         <f t="shared" ref="M29" si="5">G29</f>
         <v>0.71599999999999997</v>
       </c>
-      <c r="N29" s="24">
+      <c r="N29" s="21">
         <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
@@ -2838,9 +2938,9 @@
       <c r="D30" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -2853,9 +2953,9 @@
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
         <v>4.3157700000000006</v>
       </c>
     </row>
@@ -2863,52 +2963,114 @@
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="19">
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="6">
         <v>0.1</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="19">
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="6">
         <v>-0.1</v>
       </c>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A28:B31">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:B33">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+  <conditionalFormatting sqref="A28:B33">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="A34:A37">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2921,19 +3083,19 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J5" sqref="J5"/>
       <selection pane="topRight" activeCell="J5" sqref="J5"/>
       <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -2968,11 +3130,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2982,25 +3143,23 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3015,13 +3174,13 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="6">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="6">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="6">
         <v>0.15</v>
       </c>
     </row>
@@ -3034,13 +3193,13 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="6">
         <v>0.02</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="6">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="6">
         <v>0.15</v>
       </c>
     </row>
@@ -3053,9 +3212,9 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
@@ -3071,13 +3230,13 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="6">
         <v>-0.125</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="6">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="6">
         <v>0.15</v>
       </c>
     </row>
@@ -3090,13 +3249,13 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="6">
         <v>-0.02</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="6">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="6">
         <v>0.15</v>
       </c>
     </row>
@@ -3109,9 +3268,9 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19">
+      <c r="F10" s="12"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
@@ -3127,13 +3286,13 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="6">
         <v>0.1</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="6">
         <v>0.45100000000000001</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="6">
         <v>0.42</v>
       </c>
     </row>
@@ -3146,13 +3305,13 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>0.02</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>0.45</v>
       </c>
     </row>
@@ -3165,9 +3324,9 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
@@ -3183,13 +3342,13 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>-0.105</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>0.45100000000000001</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>0.42</v>
       </c>
     </row>
@@ -3202,13 +3361,13 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>-0.02</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>0.70599999999999996</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>0.45</v>
       </c>
     </row>
@@ -3221,9 +3380,9 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
@@ -3239,13 +3398,13 @@
       <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="6">
         <v>0</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="6">
         <v>0.74</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="6">
         <v>0.33</v>
       </c>
     </row>
@@ -3258,13 +3417,13 @@
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="6">
         <v>0.78749999999999998</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="6">
         <v>0.33</v>
       </c>
     </row>
@@ -3277,9 +3436,9 @@
       <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <v>7.0371699999999997</v>
       </c>
     </row>
@@ -3292,9 +3451,9 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3307,9 +3466,9 @@
       <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -3319,19 +3478,17 @@
         <v>24</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
         <v>0.15</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
@@ -3339,19 +3496,17 @@
         <v>26</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
         <v>0.05</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -3359,39 +3514,36 @@
         <v>28</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="6" t="s">
+      <c r="D24" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6">
         <v>1.76</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="6">
         <v>-0.13</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="6">
         <v>0.40899999999999997</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="6">
         <v>0.185</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3404,13 +3556,13 @@
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="6">
         <v>-0.13</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="6">
         <v>0.75900000000000001</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="6">
         <v>0.185</v>
       </c>
     </row>
@@ -3423,9 +3575,9 @@
       <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -3433,46 +3585,44 @@
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="19">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="6">
         <f>-0.01387-0.04</f>
         <v>-5.3870000000000001E-2</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="6">
         <v>0.49195</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="6">
         <v>0.52285999999999999</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="19">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="6">
         <f>-0.013587-0.04</f>
         <v>-5.3587000000000003E-2</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="6">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="6">
         <v>0.15</v>
       </c>
     </row>
@@ -3485,9 +3635,9 @@
       <c r="D30" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -3500,9 +3650,9 @@
       <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6">
         <v>4.3157700000000006</v>
       </c>
     </row>
@@ -3510,55 +3660,114 @@
       <c r="A32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="19">
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="6">
         <v>0.1</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="19">
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="6">
         <v>-0.1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="23" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A28:B31">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32:B33">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="A28:B33">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A34:A37">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Linkage/Link5_S2LAR/sm_car_data_Linkage_Link5_S2LAR.xlsx
+++ b/Libraries/Vehicle/Linkage/Link5_S2LAR/sm_car_data_Linkage_Link5_S2LAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\Link5_S2LAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879F223E-F1F2-4E75-97FA-5AA67AC09FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6423EA-69FD-468C-BA4C-2BBFAC9830C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="833" activeTab="3" xr2:uid="{8C42F24B-A2AD-4F52-B2E0-8CD89C371F5D}"/>
+    <workbookView xWindow="2385" yWindow="0" windowWidth="25575" windowHeight="15585" tabRatio="833" activeTab="3" xr2:uid="{8C42F24B-A2AD-4F52-B2E0-8CD89C371F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="L5StoLAR_Sedan_HambaLG_f" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="50">
   <si>
     <t>Units</t>
   </si>
@@ -131,18 +131,12 @@
     <t>TrackRod</t>
   </si>
   <si>
-    <t>Also in steering</t>
-  </si>
-  <si>
     <t>Shock</t>
   </si>
   <si>
     <t>sTop</t>
   </si>
   <si>
-    <t>Also appears in Springs</t>
-  </si>
-  <si>
     <t>sBottom</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>xMax</t>
   </si>
   <si>
-    <t>Also appears in Dampers</t>
-  </si>
-  <si>
     <t>xMin</t>
   </si>
   <si>
@@ -170,12 +161,6 @@
     <t>FiveLinkShockRear_Sedan_HambaLG_f</t>
   </si>
   <si>
-    <t>Hardpoints mirrored front/rear about reference</t>
-  </si>
-  <si>
-    <t>Useful for rear axle</t>
-  </si>
-  <si>
     <t>FiveLinkShockRear_Sedan_Hamba_f</t>
   </si>
   <si>
@@ -195,6 +180,15 @@
   </si>
   <si>
     <t>LowerArmR to Subframe</t>
+  </si>
+  <si>
+    <t>Must  be consistent with steering rack outboard point</t>
+  </si>
+  <si>
+    <t>Must be consistent with values in Spring, Damper</t>
+  </si>
+  <si>
+    <t>Must be consistent with value in Dampers</t>
   </si>
 </sst>
 </file>
@@ -205,7 +199,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,12 +215,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -322,19 +310,75 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -421,6 +465,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -732,28 +781,28 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="J5" sqref="J5"/>
-      <selection pane="topRight" activeCell="J5" sqref="J5"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection activeCell="J15" sqref="J15"/>
+      <selection pane="topRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="23" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -773,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -786,7 +835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -795,13 +844,10 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -814,11 +860,8 @@
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -838,20 +881,8 @@
       <c r="H5" s="6">
         <v>0.19097000000000003</v>
       </c>
-      <c r="L5" s="20">
-        <f>-F8</f>
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="M5" s="20">
-        <f>G8</f>
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="N5" s="20">
-        <f>H8</f>
-        <v>0.2452914285714286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -869,20 +900,8 @@
       <c r="H6" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L6" s="20">
-        <f>-F9</f>
-        <v>-0.03</v>
-      </c>
-      <c r="M6" s="20">
-        <f>G9</f>
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="N6" s="20">
-        <f>H9</f>
-        <v>0.18855571428571433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -897,7 +916,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -917,20 +936,8 @@
       <c r="H8" s="6">
         <v>0.2452914285714286</v>
       </c>
-      <c r="L8" s="20">
-        <f>-F5</f>
-        <v>-0.29913000000000006</v>
-      </c>
-      <c r="M8" s="20">
-        <f>G5</f>
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="N8" s="20">
-        <f t="shared" ref="N8:N9" si="0">H5</f>
-        <v>0.19097000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -948,20 +955,8 @@
       <c r="H9" s="6">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L9" s="20">
-        <f>-F6</f>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="M9" s="20">
-        <f t="shared" ref="M9" si="1">G6</f>
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="N9" s="20">
-        <f t="shared" si="0"/>
-        <v>0.18855571428571433</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -976,7 +971,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -996,20 +991,8 @@
       <c r="H11" s="6">
         <v>0.53609214285714291</v>
       </c>
-      <c r="L11" s="20">
-        <f>-F14</f>
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="M11" s="20">
-        <f>G14</f>
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="N11" s="20">
-        <f>H14</f>
-        <v>0.51255285714285714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -1028,20 +1011,8 @@
       <c r="H12" s="6">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L12" s="20">
-        <f>-F15</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M12" s="20">
-        <f>G15</f>
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="N12" s="20">
-        <f>H15</f>
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -1057,7 +1028,7 @@
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1077,20 +1048,8 @@
       <c r="H14" s="6">
         <v>0.51255285714285714</v>
       </c>
-      <c r="L14" s="20">
-        <f>-F11</f>
-        <v>-0.16634428571428575</v>
-      </c>
-      <c r="M14" s="20">
-        <f>G11</f>
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="N14" s="20">
-        <f t="shared" ref="N14:N15" si="2">H11</f>
-        <v>0.53609214285714291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>13</v>
@@ -1109,20 +1068,8 @@
       <c r="H15" s="6">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L15" s="20">
-        <f>-F12</f>
-        <v>0.03</v>
-      </c>
-      <c r="M15" s="20">
-        <f t="shared" ref="M15" si="3">G12</f>
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="N15" s="20">
-        <f t="shared" si="2"/>
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>12</v>
@@ -1138,7 +1085,7 @@
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -1159,7 +1106,7 @@
         <v>0.42648357142857141</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
@@ -1178,7 +1125,7 @@
         <v>0.36214285714285716</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>12</v>
@@ -1193,7 +1140,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>21</v>
@@ -1208,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>23</v>
@@ -1223,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>24</v>
@@ -1241,7 +1188,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>26</v>
@@ -1259,7 +1206,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>28</v>
@@ -1274,7 +1221,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1285,20 +1232,23 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="6">
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="20">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="20">
         <v>0.65</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="20">
         <v>0.24</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>13</v>
@@ -1316,11 +1266,8 @@
       <c r="H26" s="6">
         <v>0.23</v>
       </c>
-      <c r="L26" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
@@ -1334,81 +1281,63 @@
       <c r="H27" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L27" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="18">
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="22">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="21">
         <v>0.62</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="21">
         <v>0.65</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L28" s="21">
-        <f>-F28</f>
-        <v>2.6557142857142869E-3</v>
-      </c>
-      <c r="M28" s="21">
-        <f>G28</f>
-        <v>0.62</v>
-      </c>
-      <c r="N28" s="21">
-        <f t="shared" ref="N28:N29" si="4">H28</f>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="18">
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="22">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="21">
         <v>0.85</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="21">
         <v>0.19</v>
       </c>
-      <c r="L29" s="21">
-        <f>-F29</f>
-        <v>-5.5166428571428582E-2</v>
-      </c>
-      <c r="M29" s="21">
-        <f t="shared" ref="M29" si="5">G29</f>
-        <v>0.85</v>
-      </c>
-      <c r="N29" s="21">
-        <f t="shared" si="4"/>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J29" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
@@ -1420,10 +1349,10 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -1435,44 +1364,53 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" t="s">
         <v>12</v>
       </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="6">
+      <c r="H32" s="23">
         <v>0.1</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" t="s">
         <v>12</v>
       </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="6">
+      <c r="H33" s="23">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>8</v>
@@ -1482,13 +1420,13 @@
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>8</v>
@@ -1498,13 +1436,13 @@
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>8</v>
@@ -1514,13 +1452,13 @@
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>8</v>
@@ -1530,23 +1468,33 @@
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="23" t="s">
-        <v>48</v>
+      <c r="H37" s="19" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:A37">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B33">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:A37">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="J32:J33">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E33">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1563,20 +1511,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="J5" sqref="J5"/>
-      <selection pane="topRight" activeCell="J5" sqref="J5"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection activeCell="J15" sqref="J15"/>
+      <selection pane="topRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="23" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1622,7 +1570,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2010,17 +1958,20 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="6">
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="20">
         <v>0.13</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="20">
         <v>0.65</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="20">
         <v>0.24</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2059,51 +2010,60 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="6">
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="21">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="21">
         <v>0.62</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="21">
         <v>0.65</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="6">
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="21">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="21">
         <v>0.85</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="21">
         <v>0.19</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
@@ -2118,7 +2078,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -2132,42 +2092,51 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" t="s">
         <v>12</v>
       </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="6">
+      <c r="H32" s="23">
         <v>0.1</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" t="s">
         <v>12</v>
       </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="6">
+      <c r="H33" s="23">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>8</v>
@@ -2177,13 +2146,13 @@
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>8</v>
@@ -2193,13 +2162,13 @@
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>8</v>
@@ -2209,13 +2178,13 @@
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>8</v>
@@ -2225,23 +2194,33 @@
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="23" t="s">
-        <v>48</v>
+      <c r="H37" s="19" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:A37">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B33">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:A37">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="J32:J33">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E33">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2254,28 +2233,28 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="J5" sqref="J5"/>
-      <selection pane="topRight" activeCell="J5" sqref="J5"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection activeCell="J15" sqref="J15"/>
+      <selection pane="topRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="23" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2295,7 +2274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2308,7 +2287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2317,13 +2296,10 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -2336,11 +2312,8 @@
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2360,20 +2333,8 @@
       <c r="H5" s="6">
         <v>0.15</v>
       </c>
-      <c r="L5" s="20">
-        <f>-F8</f>
-        <v>0.125</v>
-      </c>
-      <c r="M5" s="20">
-        <f>G8</f>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="N5" s="20">
-        <f>H8</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -2391,20 +2352,8 @@
       <c r="H6" s="6">
         <v>0.15</v>
       </c>
-      <c r="L6" s="20">
-        <f>-F9</f>
-        <v>0.01</v>
-      </c>
-      <c r="M6" s="20">
-        <f>G9</f>
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="N6" s="20">
-        <f>H9</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -2420,7 +2369,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -2440,20 +2389,8 @@
       <c r="H8" s="6">
         <v>0.15</v>
       </c>
-      <c r="L8" s="20">
-        <f>-F5</f>
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="M8" s="20">
-        <f>G5</f>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="N8" s="20">
-        <f t="shared" ref="N8:N9" si="0">H5</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -2471,20 +2408,8 @@
       <c r="H9" s="6">
         <v>0.15</v>
       </c>
-      <c r="L9" s="20">
-        <f>-F6</f>
-        <v>-0.04</v>
-      </c>
-      <c r="M9" s="20">
-        <f t="shared" ref="M9" si="1">G6</f>
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="N9" s="20">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -2500,7 +2425,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
@@ -2520,20 +2445,8 @@
       <c r="H11" s="6">
         <v>0.43</v>
       </c>
-      <c r="L11" s="20">
-        <f>-F14</f>
-        <v>0.105</v>
-      </c>
-      <c r="M11" s="20">
-        <f>G14</f>
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="N11" s="20">
-        <f>H14</f>
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -2551,20 +2464,8 @@
       <c r="H12" s="6">
         <v>0.45</v>
       </c>
-      <c r="L12" s="20">
-        <f>-F15</f>
-        <v>0.06</v>
-      </c>
-      <c r="M12" s="20">
-        <f>G15</f>
-        <v>0.68720000000000003</v>
-      </c>
-      <c r="N12" s="20">
-        <f>H15</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -2580,7 +2481,7 @@
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
@@ -2600,20 +2501,8 @@
       <c r="H14" s="6">
         <v>0.41</v>
       </c>
-      <c r="L14" s="20">
-        <f>-F11</f>
-        <v>-0.1</v>
-      </c>
-      <c r="M14" s="20">
-        <f>G11</f>
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="N14" s="20">
-        <f t="shared" ref="N14:N15" si="2">H11</f>
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>13</v>
@@ -2631,20 +2520,8 @@
       <c r="H15" s="6">
         <v>0.45</v>
       </c>
-      <c r="L15" s="20">
-        <f>-F12</f>
-        <v>0.02</v>
-      </c>
-      <c r="M15" s="20">
-        <f t="shared" ref="M15" si="3">G12</f>
-        <v>0.68720000000000003</v>
-      </c>
-      <c r="N15" s="20">
-        <f t="shared" si="2"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>12</v>
@@ -2660,7 +2537,7 @@
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -2681,7 +2558,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>20</v>
@@ -2693,14 +2570,14 @@
       <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="18">
         <v>0.78749999999999998</v>
       </c>
       <c r="H18" s="6">
         <v>0.33</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>12</v>
@@ -2715,7 +2592,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>21</v>
@@ -2730,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>23</v>
@@ -2745,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>24</v>
@@ -2763,7 +2640,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>26</v>
@@ -2781,7 +2658,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>28</v>
@@ -2796,7 +2673,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -2807,20 +2684,23 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="6">
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="20">
         <v>0.13708300000000001</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="20">
         <v>0.439</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="20">
         <v>0.20499999999999999</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>13</v>
@@ -2838,11 +2718,8 @@
       <c r="H26" s="6">
         <v>0.185</v>
       </c>
-      <c r="L26" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>12</v>
@@ -2856,83 +2733,65 @@
       <c r="H27" s="6">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L27" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>32</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="18">
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="22">
         <f>-0.000217+0.05</f>
         <v>4.9783000000000001E-2</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="22">
         <v>0.49198500000000001</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="22">
         <v>0.52585999999999999</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L28" s="21">
-        <f>-F28</f>
-        <v>-4.9783000000000001E-2</v>
-      </c>
-      <c r="M28" s="21">
-        <f>G28</f>
-        <v>0.49198500000000001</v>
-      </c>
-      <c r="N28" s="21">
-        <f t="shared" ref="N28:N29" si="4">H28</f>
-        <v>0.52585999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="18">
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="22">
         <f>-0.000217+0.05</f>
         <v>4.9783000000000001E-2</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="22">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="22">
         <v>0.15</v>
       </c>
-      <c r="L29" s="21">
-        <f>-F29</f>
-        <v>-4.9783000000000001E-2</v>
-      </c>
-      <c r="M29" s="21">
-        <f t="shared" ref="M29" si="5">G29</f>
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="N29" s="21">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J29" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
@@ -2944,10 +2803,10 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -2959,44 +2818,53 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" t="s">
         <v>12</v>
       </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="6">
+      <c r="H32" s="23">
         <v>0.1</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" t="s">
         <v>12</v>
       </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="6">
+      <c r="H33" s="23">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>8</v>
@@ -3006,13 +2874,13 @@
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>8</v>
@@ -3022,13 +2890,13 @@
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>8</v>
@@ -3038,13 +2906,13 @@
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>8</v>
@@ -3054,23 +2922,33 @@
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="23" t="s">
-        <v>48</v>
+      <c r="H37" s="19" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:A37">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B33">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:A37">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="J32:J33">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E33">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3090,17 +2968,17 @@
       <selection activeCell="J5" sqref="J5"/>
       <selection pane="topRight" activeCell="J5" sqref="J5"/>
       <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="23" style="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3146,7 +3024,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3534,17 +3412,20 @@
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="6">
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="20">
         <v>-0.13</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="20">
         <v>0.40899999999999997</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="20">
         <v>0.185</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -3583,53 +3464,62 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="6">
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="21">
         <f>-0.01387-0.04</f>
         <v>-5.3870000000000001E-2</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="21">
         <v>0.49195</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="21">
         <v>0.52285999999999999</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="6">
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="21">
         <f>-0.013587-0.04</f>
         <v>-5.3587000000000003E-2</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="21">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="21">
         <v>0.15</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
@@ -3644,7 +3534,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -3658,42 +3548,51 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" t="s">
         <v>12</v>
       </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="6">
+      <c r="H32" s="23">
         <v>0.1</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" t="s">
         <v>12</v>
       </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="6">
+      <c r="H33" s="23">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>8</v>
@@ -3703,13 +3602,13 @@
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>8</v>
@@ -3719,13 +3618,13 @@
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>8</v>
@@ -3735,13 +3634,13 @@
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>8</v>
@@ -3751,23 +3650,33 @@
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="23" t="s">
-        <v>48</v>
+      <c r="H37" s="19" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:A37">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B33">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:A37">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="J32:J33">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28:E33">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Linkage/Link5_S2LAR/sm_car_data_Linkage_Link5_S2LAR.xlsx
+++ b/Libraries/Vehicle/Linkage/Link5_S2LAR/sm_car_data_Linkage_Link5_S2LAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\Link5_S2LAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6423EA-69FD-468C-BA4C-2BBFAC9830C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE311C3-51FB-4D03-8C2B-4B349D18CF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="0" windowWidth="25575" windowHeight="15585" tabRatio="833" activeTab="3" xr2:uid="{8C42F24B-A2AD-4F52-B2E0-8CD89C371F5D}"/>
+    <workbookView xWindow="30735" yWindow="0" windowWidth="21600" windowHeight="15585" tabRatio="833" activeTab="1" xr2:uid="{8C42F24B-A2AD-4F52-B2E0-8CD89C371F5D}"/>
   </bookViews>
   <sheets>
     <sheet name="L5StoLAR_Sedan_HambaLG_f" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="53">
   <si>
     <t>Units</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>Must be consistent with value in Dampers</t>
+  </si>
+  <si>
+    <t>sARB</t>
+  </si>
+  <si>
+    <t>Must be same as AntiRollBar.sSuspension for attachment to LowerArm</t>
+  </si>
+  <si>
+    <t>Must be same as Linkage.Upright.sARB for attachment to Upright</t>
   </si>
 </sst>
 </file>
@@ -219,7 +228,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +271,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -275,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -318,6 +333,8 @@
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,14 +798,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J15" sqref="J15"/>
       <selection pane="topRight" activeCell="J15" sqref="J15"/>
       <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:O1048576"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +819,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -822,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -835,7 +852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -847,7 +864,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -861,7 +878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -882,7 +899,7 @@
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -901,7 +918,7 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -916,7 +933,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -937,7 +954,7 @@
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -956,209 +973,222 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
-        <v>2.9028299999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F10" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.16634428571428575</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.63060000000000005</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="6">
-        <v>0.53609214285714291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+        <v>2.9028299999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="6">
+        <v>0.16634428571428575</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.53609214285714291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6">
         <f>-0.03</f>
         <v>-0.03</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G13" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H13" s="6">
         <v>0.54321428571428576</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6">
-        <v>-0.18372714285714289</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.51255285714285714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="6">
+        <v>-0.18372714285714289</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.63060000000000005</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.51255285714285714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6">
         <f>-0.07</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G16" s="6">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H16" s="6">
         <v>0.54321428571428576</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="6">
-        <v>9.4157142857142894E-3</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.89449999999999996</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.42648357142857141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="6">
-        <v>0</v>
+        <v>9.4157142857142894E-3</v>
       </c>
       <c r="G18" s="6">
-        <v>0.99209999999999998</v>
+        <v>0.89449999999999996</v>
       </c>
       <c r="H18" s="6">
-        <v>0.36214285714285716</v>
+        <v>0.42648357142857141</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.99209999999999998</v>
+      </c>
       <c r="H19" s="6">
-        <v>5.2778799999999997</v>
+        <v>0.36214285714285716</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
-        <v>0</v>
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" t="s">
@@ -1173,146 +1203,136 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>11</v>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="20">
-        <v>0.15379999999999999</v>
-      </c>
-      <c r="G25" s="20">
-        <v>0.65</v>
-      </c>
-      <c r="H25" s="20">
-        <v>0.24</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
+        <v>1.76</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5" t="s">
-        <v>13</v>
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="6">
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="20">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G26" s="6">
-        <v>0.91</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0.23</v>
+      <c r="G26" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0.24</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.91</v>
+      </c>
       <c r="H27" s="6">
-        <v>5.2778799999999997</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>31</v>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="22">
-        <v>-2.6557142857142869E-3</v>
-      </c>
-      <c r="G28" s="21">
-        <v>0.62</v>
-      </c>
-      <c r="H28" s="21">
-        <v>0.65</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>48</v>
+        <v>14</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B29" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
@@ -1322,13 +1342,13 @@
         <v>48</v>
       </c>
       <c r="F29" s="22">
-        <v>5.5166428571428582E-2</v>
+        <v>-2.6557142857142869E-3</v>
       </c>
       <c r="G29" s="21">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="H29" s="21">
-        <v>0.19</v>
+        <v>0.65</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>48</v>
@@ -1336,23 +1356,33 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
-        <v>33</v>
+      <c r="B30" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6">
-        <v>3.6529410000000002</v>
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="22">
+        <v>5.5166428571428582E-2</v>
+      </c>
+      <c r="G30" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H30" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -1361,36 +1391,30 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>36</v>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6">
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B33" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" t="s">
@@ -1402,31 +1426,36 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="23">
-        <v>-0.15</v>
+        <v>0.1</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="19" t="s">
-        <v>43</v>
+      <c r="A34" s="4"/>
+      <c r="B34" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="23">
+        <v>-0.15</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>8</v>
@@ -1442,7 +1471,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>8</v>
@@ -1458,7 +1487,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>8</v>
@@ -1472,29 +1501,45 @@
         <v>43</v>
       </c>
     </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A28">
+  <conditionalFormatting sqref="A29">
     <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:A37">
+  <conditionalFormatting sqref="A35:A38">
     <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B33">
+  <conditionalFormatting sqref="A29:B34">
     <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J33">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+  <conditionalFormatting sqref="E29:E34">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E33">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+  <conditionalFormatting sqref="J33:J34">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1507,14 +1552,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J15" sqref="J15"/>
       <selection pane="topRight" activeCell="J15" sqref="J15"/>
       <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,7 +1573,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1548,7 +1593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +1606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1573,7 +1618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -1587,7 +1632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1608,7 +1653,7 @@
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1628,7 +1673,7 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -1643,7 +1688,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1664,7 +1709,7 @@
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1684,207 +1729,220 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
-        <v>2.9028299999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.63060000000000005</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="6"/>
       <c r="H11" s="6">
-        <v>0.51255285714285714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+        <v>2.9028299999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.18372714285714289</v>
       </c>
       <c r="G12" s="6">
-        <v>0.89280000000000004</v>
+        <v>0.63060000000000005</v>
       </c>
       <c r="H12" s="6">
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.51255285714285714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.54321428571428576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6">
-        <v>-0.16634428571428575</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.53609214285714291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="6">
-        <v>0.03</v>
+        <v>-0.16634428571428575</v>
       </c>
       <c r="G15" s="6">
-        <v>0.89280000000000004</v>
+        <v>0.63060000000000005</v>
       </c>
       <c r="H15" s="6">
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.53609214285714291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.54321428571428576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="6">
-        <v>-9.4157142857142894E-3</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.89449999999999996</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.42648357142857141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="6">
-        <v>0</v>
+        <v>-9.4157142857142894E-3</v>
       </c>
       <c r="G18" s="6">
-        <v>0.99209999999999998</v>
+        <v>0.89449999999999996</v>
       </c>
       <c r="H18" s="6">
-        <v>0.36214285714285716</v>
+        <v>0.42648357142857141</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.99209999999999998</v>
+      </c>
       <c r="H19" s="6">
-        <v>7.0371699999999997</v>
+        <v>0.36214285714285716</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
-        <v>0</v>
+        <v>7.0371699999999997</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" t="s">
@@ -1899,146 +1957,136 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>11</v>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="20">
-        <v>0.13</v>
-      </c>
-      <c r="G25" s="20">
-        <v>0.65</v>
-      </c>
-      <c r="H25" s="20">
-        <v>0.24</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
+        <v>1.76</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5" t="s">
-        <v>13</v>
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="6">
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="20">
         <v>0.13</v>
       </c>
-      <c r="G26" s="6">
-        <v>0.91</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0.23</v>
+      <c r="G26" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0.24</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.13</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.91</v>
+      </c>
       <c r="H27" s="6">
-        <v>5.2778799999999997</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>31</v>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="21">
-        <v>2.6557142857142869E-3</v>
-      </c>
-      <c r="G28" s="21">
-        <v>0.62</v>
-      </c>
-      <c r="H28" s="21">
-        <v>0.65</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>48</v>
+        <v>14</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B29" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
@@ -2048,13 +2096,13 @@
         <v>48</v>
       </c>
       <c r="F29" s="21">
-        <v>-5.5166428571428582E-2</v>
+        <v>2.6557142857142869E-3</v>
       </c>
       <c r="G29" s="21">
-        <v>0.85</v>
+        <v>0.62</v>
       </c>
       <c r="H29" s="21">
-        <v>0.19</v>
+        <v>0.65</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>48</v>
@@ -2062,23 +2110,33 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
-        <v>33</v>
+      <c r="B30" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6">
-        <v>3.6529410000000002</v>
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="21">
+        <v>-5.5166428571428582E-2</v>
+      </c>
+      <c r="G30" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="H30" s="21">
+        <v>0.19</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -2087,36 +2145,30 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>36</v>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6">
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B33" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" t="s">
@@ -2128,31 +2180,36 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="23">
-        <v>-0.15</v>
+        <v>0.1</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="19" t="s">
-        <v>43</v>
+      <c r="A34" s="4"/>
+      <c r="B34" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="23">
+        <v>-0.15</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>8</v>
@@ -2168,7 +2225,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>8</v>
@@ -2184,7 +2241,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>8</v>
@@ -2198,29 +2255,45 @@
         <v>43</v>
       </c>
     </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A28">
+  <conditionalFormatting sqref="A29">
     <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:A37">
+  <conditionalFormatting sqref="A35:A38">
     <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B33">
+  <conditionalFormatting sqref="A29:B34">
     <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J33">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+  <conditionalFormatting sqref="E29:E34">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E33">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+  <conditionalFormatting sqref="J33:J34">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2233,14 +2306,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J15" sqref="J15"/>
       <selection pane="topRight" activeCell="J15" sqref="J15"/>
       <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:P1048576"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,7 +2327,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2274,7 +2347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2287,7 +2360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2299,7 +2372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -2313,7 +2386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -2334,7 +2407,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -2353,7 +2426,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -2369,7 +2442,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -2390,7 +2463,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -2409,159 +2482,168 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="24">
+        <v>-0.05</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
+      <c r="F11" s="12"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="6">
-        <v>-0.02</v>
+        <v>0.1</v>
       </c>
       <c r="G12" s="6">
-        <v>0.68720000000000003</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="H12" s="6">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6">
+        <v>-0.02</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6">
-        <v>-0.105</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="6">
-        <v>-0.06</v>
+        <v>-0.105</v>
       </c>
       <c r="G15" s="6">
-        <v>0.68720000000000003</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="H15" s="6">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-0.06</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.73</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" t="s">
@@ -2570,8 +2652,8 @@
       <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="18">
-        <v>0.78749999999999998</v>
+      <c r="G18" s="6">
+        <v>0.73</v>
       </c>
       <c r="H18" s="6">
         <v>0.33</v>
@@ -2580,37 +2662,41 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0.78749999999999998</v>
+      </c>
       <c r="H19" s="6">
-        <v>5.2778799999999997</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
-        <v>0</v>
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" t="s">
@@ -2625,147 +2711,136 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>11</v>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="20">
-        <v>0.13708300000000001</v>
-      </c>
-      <c r="G25" s="20">
-        <v>0.439</v>
-      </c>
-      <c r="H25" s="20">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
+        <v>1.76</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5" t="s">
-        <v>13</v>
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="6">
-        <v>0.14208299999999999</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0.185</v>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="20">
+        <v>0.13708300000000001</v>
+      </c>
+      <c r="G26" s="20">
+        <v>0.439</v>
+      </c>
+      <c r="H26" s="20">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.14208299999999999</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.78900000000000003</v>
+      </c>
       <c r="H27" s="6">
-        <v>5.2778799999999997</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>31</v>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="22">
-        <f>-0.000217+0.05</f>
-        <v>4.9783000000000001E-2</v>
-      </c>
-      <c r="G28" s="22">
-        <v>0.49198500000000001</v>
-      </c>
-      <c r="H28" s="22">
-        <v>0.52585999999999999</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>48</v>
+        <v>14</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B29" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" t="s">
@@ -2779,10 +2854,10 @@
         <v>4.9783000000000001E-2</v>
       </c>
       <c r="G29" s="22">
-        <v>0.71599999999999997</v>
+        <v>0.49198500000000001</v>
       </c>
       <c r="H29" s="22">
-        <v>0.15</v>
+        <v>0.52585999999999999</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>48</v>
@@ -2790,23 +2865,34 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
-        <v>33</v>
+      <c r="B30" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6">
-        <v>3.6529410000000002</v>
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="22">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G30" s="22">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H30" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -2815,36 +2901,30 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>36</v>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6">
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B33" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" t="s">
@@ -2856,31 +2936,36 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="23">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="19" t="s">
-        <v>43</v>
+      <c r="A34" s="4"/>
+      <c r="B34" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>8</v>
@@ -2896,7 +2981,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>8</v>
@@ -2912,7 +2997,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>8</v>
@@ -2926,29 +3011,45 @@
         <v>43</v>
       </c>
     </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A28">
+  <conditionalFormatting sqref="A29">
     <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:A37">
+  <conditionalFormatting sqref="A35:A38">
     <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B33">
+  <conditionalFormatting sqref="A29:B34">
     <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J33">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+  <conditionalFormatting sqref="E29:E34">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E33">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="J33:J34">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2961,14 +3062,14 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J5" sqref="J5"/>
       <selection pane="topRight" activeCell="J5" sqref="J5"/>
       <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2982,7 +3083,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3002,7 +3103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3015,7 +3116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3027,7 +3128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -3041,7 +3142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -3062,7 +3163,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -3081,7 +3182,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
@@ -3097,7 +3198,7 @@
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -3118,7 +3219,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -3137,159 +3238,168 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
+      <c r="F11" s="12"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
         <f>5.80566/2</f>
         <v>2.9028299999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="6">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="G12" s="6">
-        <v>0.70599999999999996</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="H12" s="6">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="6">
-        <v>-0.105</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="6">
-        <v>-0.02</v>
+        <v>-0.105</v>
       </c>
       <c r="G15" s="6">
-        <v>0.70599999999999996</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="H15" s="6">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-0.02</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <f>5.27788/2</f>
         <v>2.6389399999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.74</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" t="s">
@@ -3299,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="6">
-        <v>0.78749999999999998</v>
+        <v>0.74</v>
       </c>
       <c r="H18" s="6">
         <v>0.33</v>
@@ -3308,37 +3418,41 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.78749999999999998</v>
+      </c>
       <c r="H19" s="6">
-        <v>7.0371699999999997</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
-        <v>0</v>
+        <v>7.0371699999999997</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" t="s">
@@ -3353,188 +3467,188 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>11</v>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="20">
-        <v>-0.13</v>
-      </c>
-      <c r="G25" s="20">
-        <v>0.40899999999999997</v>
-      </c>
-      <c r="H25" s="20">
-        <v>0.185</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
+        <v>1.76</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5" t="s">
-        <v>13</v>
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="6">
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="20">
         <v>-0.13</v>
       </c>
-      <c r="G26" s="6">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="H26" s="6">
+      <c r="G26" s="20">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="H26" s="20">
         <v>0.185</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F27" s="6">
+        <v>-0.13</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.75900000000000001</v>
+      </c>
       <c r="H27" s="6">
-        <v>5.2778799999999997</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>31</v>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F29" s="21">
         <f>-0.01387-0.04</f>
         <v>-5.3870000000000001E-2</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G29" s="21">
         <v>0.49195</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H29" s="21">
         <v>0.52285999999999999</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J29" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="17" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F30" s="21">
         <f>-0.013587-0.04</f>
         <v>-5.3587000000000003E-2</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G30" s="21">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H30" s="21">
         <v>0.15</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J30" s="14" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6">
-        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" t="s">
@@ -3543,36 +3657,30 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>36</v>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="23">
-        <v>0.1</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6">
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B33" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" t="s">
@@ -3584,31 +3692,36 @@
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="23">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="19" t="s">
-        <v>43</v>
+      <c r="A34" s="4"/>
+      <c r="B34" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="23">
+        <v>-0.1</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>8</v>
@@ -3624,7 +3737,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>8</v>
@@ -3640,7 +3753,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>8</v>
@@ -3654,29 +3767,45 @@
         <v>43</v>
       </c>
     </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A28">
+  <conditionalFormatting sqref="A29">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:A37">
+  <conditionalFormatting sqref="A35:A38">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:B33">
+  <conditionalFormatting sqref="A29:B34">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J33">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="E29:E34">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E33">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="J33:J34">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
